--- a/output/output/oim_user_20180528.xlsx
+++ b/output/output/oim_user_20180528.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -507,10 +508,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <f>ROW()-2</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <f>"dainv_"&amp;B2&amp;"@gmail.com"</f>
+        <v>dainv_0@gmail.com</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f>C2&amp;D2&amp;E2</f>
+        <v>A1FK</v>
+      </c>
+      <c r="K2" s="1" t="str">
+        <f>"dainv0_"&amp;B2</f>
+        <v>dainv0_0</v>
+      </c>
+      <c r="L2" s="1" t="str">
+        <f>"Hpt123456_"&amp;B2</f>
+        <v>Hpt123456_0</v>
+      </c>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B7" si="0">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F6" si="1">"dainv_"&amp;B3&amp;"@gmail.com"</f>
+        <v>dainv_1@gmail.com</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" ref="J3:J6" si="2">C3&amp;D3&amp;E3</f>
+        <v>V1GL</v>
+      </c>
+      <c r="K3" s="1" t="str">
+        <f t="shared" ref="K3:K6" si="3">"dainv0_"&amp;B3</f>
+        <v>dainv0_1</v>
+      </c>
+      <c r="L3" s="1" t="str">
+        <f t="shared" ref="L3:L6" si="4">"Hpt123456_"&amp;B3</f>
+        <v>Hpt123456_1</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>dainv_2@gmail.com</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C1HM</v>
+      </c>
+      <c r="K4" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>dainv0_2</v>
+      </c>
+      <c r="L4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Hpt123456_2</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>dainv_3@gmail.com</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>D1IN</v>
+      </c>
+      <c r="K5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>dainv0_3</v>
+      </c>
+      <c r="L5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Hpt123456_3</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>dainv_4@gmail.com</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>EJO</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>dainv0_4</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Hpt123456_4</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" ref="F7" si="5">"dainv_"&amp;B7&amp;"@gmail.com"</f>
+        <v>dainv_5@gmail.com</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" ref="J7" si="6">C7&amp;D7&amp;E7</f>
+        <v>FGH</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f t="shared" ref="K7" si="7">"dainv0_"&amp;B7</f>
+        <v>dainv0_5</v>
+      </c>
+      <c r="L7" s="1" t="str">
+        <f t="shared" ref="L7" si="8">"Hpt123456_"&amp;B7</f>
+        <v>Hpt123456_5</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,12 +1169,8 @@
         <f t="shared" ref="L9:L11" si="11">"Hpt123456_"&amp;B9</f>
         <v>Hpt123456_7</v>
       </c>
-      <c r="M9" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -911,9 +1212,7 @@
       <c r="M10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N10" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
@@ -953,11 +1252,9 @@
         <v>Hpt123456_9</v>
       </c>
       <c r="M11" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="N11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
